--- a/corr_data.xlsx
+++ b/corr_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fan15\Desktop\人文文章\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google下载3\Socio-LP-main\Socio-LP-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6730967-8932-435B-8303-C891C63858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A6D81-E5C0-43EF-9820-8A2484344889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{6D76E20D-3D47-463B-9381-53F7C256C064}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D76E20D-3D47-463B-9381-53F7C256C064}"/>
   </bookViews>
   <sheets>
     <sheet name="corr" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>zb</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,10 +506,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.0000000000000001E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C2">
-        <v>0.92100000000000004</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-8.9999999999999993E-3</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="C3">
-        <v>0.93300000000000005</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -534,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.7000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C4">
-        <v>0.87</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -548,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-1.0999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C5">
-        <v>0.91500000000000004</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -562,16 +562,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.153</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="C6">
-        <v>5.0000000000000001E-3</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,16 +576,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.14899999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>2.1999999999999999E-2</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -596,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-2.7E-2</v>
+        <v>-0.122</v>
       </c>
       <c r="C8">
-        <v>0.68</v>
+        <v>0.06</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -610,13 +604,16 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="C9">
-        <v>0.24299999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,13 +621,16 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.104</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="C10">
-        <v>0.111</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,13 +638,16 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>6.9000000000000006E-2</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="C11">
-        <v>0.28599999999999998</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,16 +655,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.16300000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>1.2E-2</v>
+        <v>0.748</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>7.9000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C13">
-        <v>0.224</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -683,13 +683,16 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.128</v>
+        <v>-0.20799999999999999</v>
       </c>
       <c r="C14">
-        <v>0.48599999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,13 +700,16 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.10199999999999999</v>
+        <v>-0.153</v>
       </c>
       <c r="C15">
-        <v>0.33600000000000002</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,16 +717,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.34699999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,16 +731,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.27100000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -745,16 +745,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.35699999999999998</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -762,16 +759,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.312</v>
+        <v>0.106</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -779,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>2.7E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C20">
-        <v>0.68300000000000005</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -793,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>-3.3000000000000002E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="C21">
-        <v>0.75600000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -807,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>-8.5999999999999993E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="C22">
-        <v>0.41199999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -821,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C23">
-        <v>0.65400000000000003</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -835,16 +829,16 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>-0.16200000000000001</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="C24">
-        <v>1.2E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>-3.2000000000000001E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="C25">
-        <v>0.61899999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -866,10 +860,10 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>-0.189</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="C26">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -883,16 +877,16 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>-0.16</v>
+        <v>-0.17799999999999999</v>
       </c>
       <c r="C27">
-        <v>1.2999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,16 +894,16 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>-0.25800000000000001</v>
+        <v>-0.156</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,16 +911,13 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>-0.23300000000000001</v>
+        <v>-0.124</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,10 +925,10 @@
         <v>17</v>
       </c>
       <c r="B30">
-        <v>-0.121</v>
+        <v>-0.113</v>
       </c>
       <c r="C30">
-        <v>6.2E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -948,10 +939,10 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>-5.8000000000000003E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="C31">
-        <v>0.375</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -962,16 +953,16 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>-0.19700000000000001</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="C32">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,10 +970,10 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>-0.19900000000000001</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="C33">
-        <v>2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -996,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="B34">
-        <v>0.161</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C34">
-        <v>0.125</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -1010,10 +1001,10 @@
         <v>22</v>
       </c>
       <c r="B35">
-        <v>-1.7000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C35">
-        <v>0.79100000000000004</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1024,10 +1015,10 @@
         <v>23</v>
       </c>
       <c r="B36">
-        <v>-9.2999999999999999E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="C36">
-        <v>0.151</v>
+        <v>0.76</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -1038,10 +1029,10 @@
         <v>24</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C37">
-        <v>0.876</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
